--- a/Tests/FileREader_Tests/Test2.xlsx
+++ b/Tests/FileREader_Tests/Test2.xlsx
@@ -13,17 +13,6 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Mark1</t>
-  </si>
-  <si>
-    <t>Mark2</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -364,72 +353,64 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A8" sqref="A8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="B1" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>1.45</v>
+        <v>2.37</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>2.37</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>35.76</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>35.76</v>
+        <v>43.56</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>43.56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1">
         <v>25</v>
       </c>
     </row>
